--- a/ESPN sports website/IPL/Delhi Capitals/Mandeep Singh.xlsx
+++ b/ESPN sports website/IPL/Delhi Capitals/Mandeep Singh.xlsx
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -460,16 +460,16 @@
         <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I2" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>May 05, 2022</v>
+        <v>March 27, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Capitals won by 21 runs</v>
+        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Mandeep Singh</v>
       </c>
       <c r="C3" t="str">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>112.50</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Gujarat Titans</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>April 02, 2022</v>
+        <v>May 05, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Titans won by 14 runs</v>
+        <v>Capitals won by 21 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Mandeep Singh</v>
       </c>
       <c r="C4" t="str">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="str">
         <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>0.00</v>
+        <v>112.50</v>
       </c>
       <c r="H4" t="str">
-        <v>Mumbai Indians</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J4" t="str">
-        <v>March 27, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 4 wickets (with 10 balls remaining)</v>
+        <v>Titans won by 14 runs</v>
       </c>
     </row>
   </sheetData>
